--- a/Data_clean/12_jun_testing_other_rooms.xlsx
+++ b/Data_clean/12_jun_testing_other_rooms.xlsx
@@ -241,10 +241,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M4" activeCellId="0" sqref="M4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N5" activeCellId="0" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -411,6 +411,47 @@
       </c>
       <c r="M4" s="0" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>0.565972222222222</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
